--- a/Simulations and Calculations/MOSFETHeatsinkCalculations.xlsx
+++ b/Simulations and Calculations/MOSFETHeatsinkCalculations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhu\Documents\UBC 2018\ELEC 491\Github\SolarFlorez\Simulations and Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62210C72-005C-4487-9269-E5BD71374612}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD2A194-556C-4F2B-8960-8E6E088B09C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{DAC24BE9-D114-4354-AF86-8BEE48C5F95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t xml:space="preserve">Heatsink for MOSFET </t>
   </si>
@@ -84,6 +85,12 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>Heatsink for MOSFET at 400lpm</t>
+  </si>
+  <si>
+    <t>IPP045N10N3GXKSA1</t>
   </si>
 </sst>
 </file>
@@ -119,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,6 +135,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,65 +452,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDDB5D9-70C5-4DF5-90BB-FD3BED05F970}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5234375" customWidth="1"/>
+    <col min="4" max="4" width="22.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>9.7000000000000003E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1.4840000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.4840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -508,24 +554,43 @@
         <f>B3*B4</f>
         <v>1.4394800000000003E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>E3*E4</f>
+        <v>1.4394800000000003E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>1.5200000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.5200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -533,29 +598,51 @@
         <f>B10/(B8*B9)</f>
         <v>1.1732631845450361</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>E10/(E8*E9)</f>
+        <v>1.1732631845450361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -563,35 +650,61 @@
         <f>B14/B15</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
         <f>B19+B18*(B16+B11+B5)</f>
-        <v>127.27915821454042</v>
+        <v>141.8256845836305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f>E19+E18*(E16+E11+E5)</f>
+        <v>101.22568458363051</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
